--- a/src/definitions/worktypes/work_types.xlsx
+++ b/src/definitions/worktypes/work_types.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\crisiscleanup-web\src\definitions\worktypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8140008_{18D9BA77-C664-4142-8A46-5B7F3BF94BCC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{781F5ADF-4BBE-40DE-B95F-1F04527EC77C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6615"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="work_types" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -724,7 +724,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1559,11 +1559,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E46" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/definitions/worktypes/work_types.xlsx
+++ b/src/definitions/worktypes/work_types.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\crisiscleanup-web\src\definitions\worktypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{781F5ADF-4BBE-40DE-B95F-1F04527EC77C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB9A997-9DC0-4B7C-85BF-7DE82C69FA6E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="work_types" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="239">
   <si>
     <t>|</t>
   </si>
@@ -719,6 +719,24 @@
   </si>
   <si>
     <t>workTypeDescription.water_sanitation</t>
+  </si>
+  <si>
+    <t>catchment_gutters</t>
+  </si>
+  <si>
+    <t>Catchment_Gutters</t>
+  </si>
+  <si>
+    <t>tephra</t>
+  </si>
+  <si>
+    <t>Tephra</t>
+  </si>
+  <si>
+    <t>INSERT INTO public.worksite_work_types (id, work_type_key, file_prefix, name_t, description_t, commercial_value, last_updated, depreciated_date) VALUES</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -1560,975 +1578,1065 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
+      <c r="K1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>15000</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="str">
-        <f>"  ('"&amp;B2&amp;"', '"&amp;C2&amp;"', '"&amp;D2&amp;"', '"&amp;E2&amp;"', "&amp;F2&amp;", '"&amp;TEXT(H2, "YYYY-MM-DD")&amp;"', "&amp;IF(I2="null","NULL","'"&amp;TEXT(I2, "YYYY-MM-DD")&amp;"'")&amp;"),"</f>
-        <v xml:space="preserve">  ('ash', 'Ash', 'workType.ash', 'workTypeDescription.ash', 15000, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="str">
+        <f>"  ("&amp;A2&amp;", '"&amp;C2&amp;"', '"&amp;D2&amp;"', '"&amp;E2&amp;"', '"&amp;F2&amp;"', "&amp;G2&amp;", '"&amp;TEXT(I2, "YYYY-MM-DD")&amp;"', "&amp;IF(J2="null","NULL","'"&amp;TEXT(J2, "YYYY-MM-DD")&amp;"'")&amp;"),"</f>
+        <v xml:space="preserve">  (1, 'ash', 'Ash', 'workType.ash', 'workTypeDescription.ash', 15000, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>50000</v>
       </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1">
-        <v>43115</v>
+      <c r="H3" t="s">
+        <v>13</v>
       </c>
       <c r="I3" s="1">
         <v>43115</v>
       </c>
-      <c r="J3" t="str">
-        <f t="shared" ref="J3:J58" si="0">"  ('"&amp;B3&amp;"', '"&amp;C3&amp;"', '"&amp;D3&amp;"', '"&amp;E3&amp;"', "&amp;F3&amp;", '"&amp;TEXT(H3, "YYYY-MM-DD")&amp;"', "&amp;IF(I3="null","NULL","'"&amp;TEXT(I3, "YYYY-MM-DD")&amp;"'")&amp;"),"</f>
-        <v xml:space="preserve">  ('biohazard', 'Biohazard', 'workType.biohazard', 'workTypeDescription.biohazard', 50000, '2018-01-15', '2018-01-15'),</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
+      <c r="J3" s="1">
+        <v>43115</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K60" si="0">"  ("&amp;A3&amp;", '"&amp;C3&amp;"', '"&amp;D3&amp;"', '"&amp;E3&amp;"', '"&amp;F3&amp;"', "&amp;G3&amp;", '"&amp;TEXT(I3, "YYYY-MM-DD")&amp;"', "&amp;IF(J3="null","NULL","'"&amp;TEXT(J3, "YYYY-MM-DD")&amp;"'")&amp;"),"</f>
+        <v xml:space="preserve">  (2, 'biohazard', 'Biohazard', 'workType.biohazard', 'workTypeDescription.biohazard', 50000, '2018-01-15', '2018-01-15'),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>500</v>
       </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('construction_consultation', 'Construction_Consultation', 'workType.construction_consultation', 'workTypeDescription.construction_consultation', 500, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (3, 'construction_consultation', 'Construction_Consultation', 'workType.construction_consultation', 'workTypeDescription.construction_consultation', 500, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>100</v>
       </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('core_relief_items', 'Core_relief_items', 'workType.core_relief_items', 'workTypeDescription.core_relief_items', 100, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (4, 'core_relief_items', 'Core_relief_items', 'workType.core_relief_items', 'workTypeDescription.core_relief_items', 100, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>29</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1500</v>
       </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('debris', 'Debris', 'workType.debris', 'workTypeDescription.debris', 1500, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (5, 'debris', 'Debris', 'workType.debris', 'workTypeDescription.debris', 1500, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
       </c>
       <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>33</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>600</v>
       </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="1">
-        <v>43115</v>
+      <c r="H7" t="s">
+        <v>13</v>
       </c>
       <c r="I7" s="1">
         <v>43115</v>
       </c>
-      <c r="J7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('debris_removal', 'Debris_removal', 'workType.debris_removal', 'workTypeDescription.debris_removal', 600, '2018-01-15', '2018-01-15'),</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>34</v>
+      <c r="J7" s="1">
+        <v>43115</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (6, 'debris_removal', 'Debris_removal', 'workType.debris_removal', 'workTypeDescription.debris_removal', 600, '2018-01-15', '2018-01-15'),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
       </c>
       <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>36</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>37</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>10000</v>
       </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('deferred_maintenance', 'Deferred_Maintenance', 'workType.deferred_maintenance', 'workTypeDescription.deferred_maintenance', 10000, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>38</v>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (7, 'deferred_maintenance', 'Deferred_Maintenance', 'workType.deferred_maintenance', 'workTypeDescription.deferred_maintenance', 10000, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
       </c>
       <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>41</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>18000</v>
       </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('demolition', 'Demolition', 'workType.demolition', 'workTypeDescription.demolition', 18000, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>42</v>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (8, 'demolition', 'Demolition', 'workType.demolition', 'workTypeDescription.demolition', 18000, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>42</v>
       </c>
       <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
         <v>43</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>44</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>45</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>500</v>
       </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="1">
-        <v>43115</v>
+      <c r="H10" t="s">
+        <v>13</v>
       </c>
       <c r="I10" s="1">
         <v>43115</v>
       </c>
-      <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('education', 'Education', 'workType.education', 'workTypeDescription.education', 500, '2018-01-15', '2018-01-15'),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>46</v>
+      <c r="J10" s="1">
+        <v>43115</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (9, 'education', 'Education', 'workType.education', 'workTypeDescription.education', 500, '2018-01-15', '2018-01-15'),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>46</v>
       </c>
       <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
         <v>47</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>48</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>49</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1000</v>
       </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('erosion', 'Erosion', 'workType.erosion', 'workTypeDescription.erosion', 1000, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>50</v>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (10, 'erosion', 'Erosion', 'workType.erosion', 'workTypeDescription.erosion', 1000, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>50</v>
       </c>
       <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
         <v>51</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>52</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>53</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>250</v>
       </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('escort', 'Escort', 'workType.escort', 'workTypeDescription.escort', 250, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>54</v>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (11, 'escort', 'Escort', 'workType.escort', 'workTypeDescription.escort', 250, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>54</v>
       </c>
       <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
         <v>55</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>56</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>57</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>2500</v>
       </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('fence', 'Fence', 'workType.fence', 'workTypeDescription.fence', 2500, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>58</v>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (12, 'fence', 'Fence', 'workType.fence', 'workTypeDescription.fence', 2500, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
       </c>
       <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
         <v>59</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>60</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>61</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>15000</v>
       </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('fire', 'Fire', 'workType.fire', 'workTypeDescription.fire', 15000, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>62</v>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (13, 'fire', 'Fire', 'workType.fire', 'workTypeDescription.fire', 15000, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>62</v>
       </c>
       <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
         <v>63</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>64</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>65</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>18000</v>
       </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="1">
-        <v>43115</v>
+      <c r="H15" t="s">
+        <v>13</v>
       </c>
       <c r="I15" s="1">
         <v>43115</v>
       </c>
-      <c r="J15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('_flood', '_Flood', 'workType._flood', 'workTypeDescription._flood', 18000, '2018-01-15', '2018-01-15'),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>66</v>
+      <c r="J15" s="1">
+        <v>43115</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (14, '_flood', '_Flood', 'workType._flood', 'workTypeDescription._flood', 18000, '2018-01-15', '2018-01-15'),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>66</v>
       </c>
       <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
         <v>67</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>68</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>69</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>18000</v>
       </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="1">
-        <v>43115</v>
+      <c r="H16" t="s">
+        <v>13</v>
       </c>
       <c r="I16" s="1">
         <v>43115</v>
       </c>
-      <c r="J16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('flood', 'Flood', 'workType.flood', 'workTypeDescription.flood', 18000, '2018-01-15', '2018-01-15'),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>70</v>
+      <c r="J16" s="1">
+        <v>43115</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (15, 'flood', 'Flood', 'workType.flood', 'workTypeDescription.flood', 18000, '2018-01-15', '2018-01-15'),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
       </c>
       <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
         <v>71</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>72</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>73</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>18000</v>
       </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="1">
-        <v>43115</v>
+      <c r="H17" t="s">
+        <v>13</v>
       </c>
       <c r="I17" s="1">
         <v>43115</v>
       </c>
-      <c r="J17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('flood_indoor', 'Flood_indoor', 'workType.flood_indoor', 'workTypeDescription.flood_indoor', 18000, '2018-01-15', '2018-01-15'),</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>74</v>
+      <c r="J17" s="1">
+        <v>43115</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (16, 'flood_indoor', 'Flood_indoor', 'workType.flood_indoor', 'workTypeDescription.flood_indoor', 18000, '2018-01-15', '2018-01-15'),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>74</v>
       </c>
       <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
         <v>75</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>76</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>77</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>9000</v>
       </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="1">
-        <v>43115</v>
+      <c r="H18" t="s">
+        <v>13</v>
       </c>
       <c r="I18" s="1">
         <v>43115</v>
       </c>
-      <c r="J18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('flood_outdoor', 'Flood_outdoor', 'workType.flood_outdoor', 'workTypeDescription.flood_outdoor', 9000, '2018-01-15', '2018-01-15'),</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>78</v>
+      <c r="J18" s="1">
+        <v>43115</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (17, 'flood_outdoor', 'Flood_outdoor', 'workType.flood_outdoor', 'workTypeDescription.flood_outdoor', 9000, '2018-01-15', '2018-01-15'),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>78</v>
       </c>
       <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
         <v>79</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>80</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>81</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>25</v>
       </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('food', 'Food', 'workType.food', 'workTypeDescription.food', 25, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>82</v>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (18, 'food', 'Food', 'workType.food', 'workTypeDescription.food', 25, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
       </c>
       <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s">
         <v>83</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>84</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>85</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>25</v>
       </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I20" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('goods_or_services', 'Goods_or_Services', 'workType.goods_or_services', 'workTypeDescription.goods_or_services', 25, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>86</v>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (19, 'goods_or_services', 'Goods_or_Services', 'workType.goods_or_services', 'workTypeDescription.goods_or_services', 25, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>86</v>
       </c>
       <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" t="s">
         <v>87</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>88</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>89</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>50</v>
       </c>
-      <c r="G21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="1">
-        <v>43115</v>
+      <c r="H21" t="s">
+        <v>13</v>
       </c>
       <c r="I21" s="1">
         <v>43115</v>
       </c>
-      <c r="J21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('health', 'Health', 'workType.health', 'workTypeDescription.health', 50, '2018-01-15', '2018-01-15'),</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>90</v>
+      <c r="J21" s="1">
+        <v>43115</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (20, 'health', 'Health', 'workType.health', 'workTypeDescription.health', 50, '2018-01-15', '2018-01-15'),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>90</v>
       </c>
       <c r="C22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" t="s">
         <v>91</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>92</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>93</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>1000</v>
       </c>
-      <c r="G22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="1">
-        <v>43115</v>
+      <c r="H22" t="s">
+        <v>13</v>
       </c>
       <c r="I22" s="1">
         <v>43115</v>
       </c>
-      <c r="J22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('infrastructure', 'Infrastructure', 'workType.infrastructure', 'workTypeDescription.infrastructure', 1000, '2018-01-15', '2018-01-15'),</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>94</v>
+      <c r="J22" s="1">
+        <v>43115</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (21, 'infrastructure', 'Infrastructure', 'workType.infrastructure', 'workTypeDescription.infrastructure', 1000, '2018-01-15', '2018-01-15'),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>94</v>
       </c>
       <c r="C23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" t="s">
         <v>95</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>96</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>97</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>1000</v>
       </c>
-      <c r="G23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="1">
-        <v>43115</v>
+      <c r="H23" t="s">
+        <v>13</v>
       </c>
       <c r="I23" s="1">
         <v>43115</v>
       </c>
-      <c r="J23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('infrastructure_logistics', 'Infrastructure_logistics', 'workType.infrastructure_logistics', 'workTypeDescription.infrastructure_logistics', 1000, '2018-01-15', '2018-01-15'),</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>98</v>
+      <c r="J23" s="1">
+        <v>43115</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (22, 'infrastructure_logistics', 'Infrastructure_logistics', 'workType.infrastructure_logistics', 'workTypeDescription.infrastructure_logistics', 1000, '2018-01-15', '2018-01-15'),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>98</v>
       </c>
       <c r="C24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" t="s">
         <v>99</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>100</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>101</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1000</v>
       </c>
-      <c r="G24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="1">
-        <v>43115</v>
+      <c r="H24" t="s">
+        <v>13</v>
       </c>
       <c r="I24" s="1">
         <v>43115</v>
       </c>
-      <c r="J24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('jobs_livelihoods', 'Jobs_Livelihoods', 'workType.jobs_livelihoods', 'workTypeDescription.jobs_livelihoods', 1000, '2018-01-15', '2018-01-15'),</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>102</v>
+      <c r="J24" s="1">
+        <v>43115</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (23, 'jobs_livelihoods', 'Jobs_Livelihoods', 'workType.jobs_livelihoods', 'workTypeDescription.jobs_livelihoods', 1000, '2018-01-15', '2018-01-15'),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>102</v>
       </c>
       <c r="C25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" t="s">
         <v>103</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>104</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>105</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>50000</v>
       </c>
-      <c r="G25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I25" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('landslide', 'Landslide', 'workType.landslide', 'workTypeDescription.landslide', 50000, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>106</v>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J25" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (24, 'landslide', 'Landslide', 'workType.landslide', 'workTypeDescription.landslide', 50000, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>106</v>
       </c>
       <c r="C26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" t="s">
         <v>107</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>108</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>109</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>7000</v>
       </c>
-      <c r="G26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I26" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('leak', 'Leak', 'workType.leak', 'workTypeDescription.leak', 7000, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>110</v>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (25, 'leak', 'Leak', 'workType.leak', 'workTypeDescription.leak', 7000, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>110</v>
       </c>
       <c r="C27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" t="s">
         <v>111</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>112</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>113</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>4000</v>
       </c>
-      <c r="G27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('mold_remediation', 'Mold_Remediation', 'workType.mold_remediation', 'workTypeDescription.mold_remediation', 4000, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>114</v>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (26, 'mold_remediation', 'Mold_Remediation', 'workType.mold_remediation', 'workTypeDescription.mold_remediation', 4000, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>114</v>
       </c>
       <c r="C28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" t="s">
         <v>115</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>116</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>117</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>18000</v>
       </c>
-      <c r="G28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I28" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('muck_out', 'Muck_Out', 'workType.muck_out', 'workTypeDescription.muck_out', 18000, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>118</v>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (27, 'muck_out', 'Muck_Out', 'workType.muck_out', 'workTypeDescription.muck_out', 18000, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>118</v>
       </c>
       <c r="C29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" t="s">
         <v>119</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>120</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>121</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>2500</v>
       </c>
-      <c r="G29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I29" t="s">
-        <v>13</v>
-      </c>
-      <c r="J29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('other', 'Other', 'workType.other', 'workTypeDescription.other', 2500, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>122</v>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (28, 'other', 'Other', 'workType.other', 'workTypeDescription.other', 2500, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>122</v>
@@ -2537,31 +2645,34 @@
         <v>122</v>
       </c>
       <c r="D30" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" t="s">
         <v>123</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>124</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0</v>
       </c>
-      <c r="G30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I30" t="s">
-        <v>13</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('pda_1', 'pda_1', 'workType.pda_1', 'workTypeDescription.pda_1', 0, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>125</v>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J30" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (29, 'pda_1', 'pda_1', 'workType.pda_1', 'workTypeDescription.pda_1', 0, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>125</v>
@@ -2570,31 +2681,34 @@
         <v>125</v>
       </c>
       <c r="D31" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" t="s">
         <v>126</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>127</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0</v>
       </c>
-      <c r="G31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I31" t="s">
-        <v>13</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('pda_2', 'pda_2', 'workType.pda_2', 'workTypeDescription.pda_2', 0, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>128</v>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (30, 'pda_2', 'pda_2', 'workType.pda_2', 'workTypeDescription.pda_2', 0, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>128</v>
@@ -2603,31 +2717,34 @@
         <v>128</v>
       </c>
       <c r="D32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" t="s">
         <v>129</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>130</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>0</v>
       </c>
-      <c r="G32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I32" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('pda_3', 'pda_3', 'workType.pda_3', 'workTypeDescription.pda_3', 0, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>131</v>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J32" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (31, 'pda_3', 'pda_3', 'workType.pda_3', 'workTypeDescription.pda_3', 0, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>131</v>
@@ -2636,31 +2753,34 @@
         <v>131</v>
       </c>
       <c r="D33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" t="s">
         <v>132</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>133</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0</v>
       </c>
-      <c r="G33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I33" t="s">
-        <v>13</v>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('pda_4', 'pda_4', 'workType.pda_4', 'workTypeDescription.pda_4', 0, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>134</v>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (32, 'pda_4', 'pda_4', 'workType.pda_4', 'workTypeDescription.pda_4', 0, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>134</v>
@@ -2669,818 +2789,970 @@
         <v>134</v>
       </c>
       <c r="D34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" t="s">
         <v>135</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>136</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0</v>
       </c>
-      <c r="G34" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I34" t="s">
-        <v>13</v>
-      </c>
-      <c r="J34" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('pda_5', 'pda_5', 'workType.pda_5', 'workTypeDescription.pda_5', 0, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>137</v>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J34" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (33, 'pda_5', 'pda_5', 'workType.pda_5', 'workTypeDescription.pda_5', 0, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>137</v>
       </c>
       <c r="C35" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" t="s">
         <v>138</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>139</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>140</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>75</v>
       </c>
-      <c r="G35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="1">
-        <v>43115</v>
+      <c r="H35" t="s">
+        <v>13</v>
       </c>
       <c r="I35" s="1">
         <v>43115</v>
       </c>
-      <c r="J35" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('phone', 'Phone', 'workType.phone', 'workTypeDescription.phone', 75, '2018-01-15', '2018-01-15'),</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>141</v>
+      <c r="J35" s="1">
+        <v>43115</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (34, 'phone', 'Phone', 'workType.phone', 'workTypeDescription.phone', 75, '2018-01-15', '2018-01-15'),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>141</v>
       </c>
       <c r="C36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" t="s">
         <v>142</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>143</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>144</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>50</v>
       </c>
-      <c r="G36" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="1">
-        <v>43115</v>
+      <c r="H36" t="s">
+        <v>13</v>
       </c>
       <c r="I36" s="1">
         <v>43115</v>
       </c>
-      <c r="J36" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('pill', 'Pill', 'workType.pill', 'workTypeDescription.pill', 50, '2018-01-15', '2018-01-15'),</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>145</v>
+      <c r="J36" s="1">
+        <v>43115</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (35, 'pill', 'Pill', 'workType.pill', 'workTypeDescription.pill', 50, '2018-01-15', '2018-01-15'),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>145</v>
       </c>
       <c r="C37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" t="s">
         <v>146</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>147</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>148</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0</v>
       </c>
-      <c r="G37" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I37" t="s">
-        <v>13</v>
-      </c>
-      <c r="J37" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('power', 'Power', 'workType.power', 'workTypeDescription.power', 0, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>149</v>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J37" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (36, 'power', 'Power', 'workType.power', 'workTypeDescription.power', 0, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>149</v>
       </c>
       <c r="C38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" t="s">
         <v>150</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>151</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>152</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>500</v>
       </c>
-      <c r="G38" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="1">
-        <v>43115</v>
+      <c r="H38" t="s">
+        <v>13</v>
       </c>
       <c r="I38" s="1">
         <v>43115</v>
       </c>
-      <c r="J38" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('protection_security', 'Protection_Security', 'workType.protection_security', 'workTypeDescription.protection_security', 500, '2018-01-15', '2018-01-15'),</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>153</v>
+      <c r="J38" s="1">
+        <v>43115</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (37, 'protection_security', 'Protection_Security', 'workType.protection_security', 'workTypeDescription.protection_security', 500, '2018-01-15', '2018-01-15'),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>153</v>
       </c>
       <c r="C39" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" t="s">
         <v>154</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>155</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>156</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>20000</v>
       </c>
-      <c r="G39" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I39" t="s">
-        <v>13</v>
-      </c>
-      <c r="J39" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('rebuild', 'Rebuild', 'workType.rebuild', 'workTypeDescription.rebuild', 20000, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>157</v>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J39" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (38, 'rebuild', 'Rebuild', 'workType.rebuild', 'workTypeDescription.rebuild', 20000, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>157</v>
       </c>
       <c r="C40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" t="s">
         <v>158</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>159</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>160</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>50000</v>
       </c>
-      <c r="G40" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I40" t="s">
-        <v>13</v>
-      </c>
-      <c r="J40" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('rebuild_total', 'Rebuild_Total', 'workType.rebuild_total', 'workTypeDescription.rebuild_total', 50000, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>161</v>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J40" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (39, 'rebuild_total', 'Rebuild_Total', 'workType.rebuild_total', 'workTypeDescription.rebuild_total', 50000, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>161</v>
       </c>
       <c r="C41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" t="s">
         <v>162</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>163</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>164</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>0</v>
       </c>
-      <c r="G41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I41" t="s">
-        <v>13</v>
-      </c>
-      <c r="J41" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('report', 'Report', 'workType.report', 'workTypeDescription.report', 0, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>165</v>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (40, 'report', 'Report', 'workType.report', 'workTypeDescription.report', 0, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>165</v>
       </c>
       <c r="C42" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" t="s">
         <v>166</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>167</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>168</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>3000</v>
       </c>
-      <c r="G42" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I42" t="s">
-        <v>13</v>
-      </c>
-      <c r="J42" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('retardant_cleanup', 'Retardant_Cleanup', 'workType.retardant_cleanup', 'workTypeDescription.retardant_cleanup', 3000, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>169</v>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J42" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (41, 'retardant_cleanup', 'Retardant_Cleanup', 'workType.retardant_cleanup', 'workTypeDescription.retardant_cleanup', 3000, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>169</v>
       </c>
       <c r="C43" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" t="s">
         <v>170</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>171</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>172</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>900</v>
       </c>
-      <c r="G43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I43" t="s">
-        <v>13</v>
-      </c>
-      <c r="J43" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('shelter', 'Shelter', 'workType.shelter', 'workTypeDescription.shelter', 900, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>173</v>
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J43" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (42, 'shelter', 'Shelter', 'workType.shelter', 'workTypeDescription.shelter', 900, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>173</v>
       </c>
       <c r="C44" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" t="s">
         <v>174</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>175</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>176</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>2500</v>
       </c>
-      <c r="G44" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" s="1">
-        <v>43115</v>
+      <c r="H44" t="s">
+        <v>13</v>
       </c>
       <c r="I44" s="1">
         <v>43115</v>
       </c>
-      <c r="J44" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('siding', 'Siding', 'workType.siding', 'workTypeDescription.siding', 2500, '2018-01-15', '2018-01-15'),</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>177</v>
+      <c r="J44" s="1">
+        <v>43115</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (43, 'siding', 'Siding', 'workType.siding', 'workTypeDescription.siding', 2500, '2018-01-15', '2018-01-15'),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>177</v>
       </c>
       <c r="C45" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" t="s">
         <v>178</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>179</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>180</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>8000</v>
       </c>
-      <c r="G45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I45" t="s">
-        <v>13</v>
-      </c>
-      <c r="J45" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('smoke_damage', 'Smoke_Damage', 'workType.smoke_damage', 'workTypeDescription.smoke_damage', 8000, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>181</v>
+      <c r="H45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J45" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (44, 'smoke_damage', 'Smoke_Damage', 'workType.smoke_damage', 'workTypeDescription.smoke_damage', 8000, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>181</v>
       </c>
       <c r="C46" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" t="s">
         <v>182</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>183</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>184</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>250</v>
       </c>
-      <c r="G46" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I46" t="s">
-        <v>13</v>
-      </c>
-      <c r="J46" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('snow_ground', 'Snow_Ground', 'workType.snow_ground', 'workTypeDescription.snow_ground', 250, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>185</v>
+      <c r="H46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (45, 'snow_ground', 'Snow_Ground', 'workType.snow_ground', 'workTypeDescription.snow_ground', 250, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>185</v>
       </c>
       <c r="C47" t="s">
+        <v>185</v>
+      </c>
+      <c r="D47" t="s">
         <v>186</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>187</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>188</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>250</v>
       </c>
-      <c r="G47" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J47" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('snow_roof', 'Snow_Roof', 'workType.snow_roof', 'workTypeDescription.snow_roof', 250, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>189</v>
+      <c r="H47" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J47" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (46, 'snow_roof', 'Snow_Roof', 'workType.snow_roof', 'workTypeDescription.snow_roof', 250, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>189</v>
       </c>
       <c r="C48" t="s">
+        <v>189</v>
+      </c>
+      <c r="D48" t="s">
         <v>190</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>191</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>192</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>50000</v>
       </c>
-      <c r="G48" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I48" t="s">
-        <v>13</v>
-      </c>
-      <c r="J48" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('structure', 'Structure', 'workType.structure', 'workTypeDescription.structure', 50000, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>193</v>
+      <c r="H48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J48" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (47, 'structure', 'Structure', 'workType.structure', 'workTypeDescription.structure', 50000, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>193</v>
       </c>
       <c r="C49" t="s">
+        <v>193</v>
+      </c>
+      <c r="D49" t="s">
         <v>194</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>195</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>196</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>50</v>
       </c>
-      <c r="G49" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" s="1">
-        <v>43115</v>
+      <c r="H49" t="s">
+        <v>13</v>
       </c>
       <c r="I49" s="1">
         <v>43115</v>
       </c>
-      <c r="J49" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('syringe', 'Syringe', 'workType.syringe', 'workTypeDescription.syringe', 50, '2018-01-15', '2018-01-15'),</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>197</v>
+      <c r="J49" s="1">
+        <v>43115</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (48, 'syringe', 'Syringe', 'workType.syringe', 'workTypeDescription.syringe', 50, '2018-01-15', '2018-01-15'),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>197</v>
       </c>
       <c r="C50" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" t="s">
         <v>198</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>199</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>200</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>900</v>
       </c>
-      <c r="G50" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I50" t="s">
-        <v>13</v>
-      </c>
-      <c r="J50" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('tarp', 'Tarp', 'workType.tarp', 'workTypeDescription.tarp', 900, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>201</v>
+      <c r="H50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J50" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (49, 'tarp', 'Tarp', 'workType.tarp', 'workTypeDescription.tarp', 900, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>201</v>
       </c>
       <c r="C51" t="s">
+        <v>201</v>
+      </c>
+      <c r="D51" t="s">
         <v>202</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>203</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>204</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>4500</v>
       </c>
-      <c r="G51" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I51" t="s">
-        <v>13</v>
-      </c>
-      <c r="J51" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('temporary_housing', 'Temporary_Housing', 'workType.temporary_housing', 'workTypeDescription.temporary_housing', 4500, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>205</v>
+      <c r="H51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J51" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (50, 'temporary_housing', 'Temporary_Housing', 'workType.temporary_housing', 'workTypeDescription.temporary_housing', 4500, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>205</v>
       </c>
       <c r="C52" t="s">
+        <v>205</v>
+      </c>
+      <c r="D52" t="s">
         <v>206</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>207</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>208</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>15000</v>
       </c>
-      <c r="G52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="1">
-        <v>43115</v>
+      <c r="H52" t="s">
+        <v>13</v>
       </c>
       <c r="I52" s="1">
         <v>43115</v>
       </c>
-      <c r="J52" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('tornado', 'Tornado', 'workType.tornado', 'workTypeDescription.tornado', 15000, '2018-01-15', '2018-01-15'),</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>209</v>
+      <c r="J52" s="1">
+        <v>43115</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (51, 'tornado', 'Tornado', 'workType.tornado', 'workTypeDescription.tornado', 15000, '2018-01-15', '2018-01-15'),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>209</v>
       </c>
       <c r="C53" t="s">
+        <v>209</v>
+      </c>
+      <c r="D53" t="s">
         <v>210</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>211</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>212</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>600</v>
       </c>
-      <c r="G53" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I53" t="s">
-        <v>13</v>
-      </c>
-      <c r="J53" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('trees', 'Trees', 'workType.trees', 'workTypeDescription.trees', 600, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>213</v>
+      <c r="H53" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J53" t="s">
+        <v>13</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (52, 'trees', 'Trees', 'workType.trees', 'workTypeDescription.trees', 600, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>213</v>
       </c>
       <c r="C54" t="s">
+        <v>213</v>
+      </c>
+      <c r="D54" t="s">
         <v>214</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>215</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>216</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>900</v>
       </c>
-      <c r="G54" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I54" t="s">
-        <v>13</v>
-      </c>
-      <c r="J54" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('trees_heavy_equipment', 'Trees_Heavy_Equipment', 'workType.trees_heavy_equipment', 'workTypeDescription.trees_heavy_equipment', 900, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>217</v>
+      <c r="H54" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J54" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (53, 'trees_heavy_equipment', 'Trees_Heavy_Equipment', 'workType.trees_heavy_equipment', 'workTypeDescription.trees_heavy_equipment', 900, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>217</v>
       </c>
       <c r="C55" t="s">
+        <v>217</v>
+      </c>
+      <c r="D55" t="s">
         <v>218</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>219</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>220</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>100</v>
       </c>
-      <c r="G55" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J55" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('unknown', 'Unknown', 'workType.unknown', 'workTypeDescription.unknown', 100, '2018-01-15', NULL),</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>221</v>
+      <c r="H55" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J55" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (54, 'unknown', 'Unknown', 'workType.unknown', 'workTypeDescription.unknown', 100, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>221</v>
       </c>
       <c r="C56" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" t="s">
         <v>222</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>223</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>224</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>1500</v>
       </c>
-      <c r="G56" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" s="1">
-        <v>43115</v>
+      <c r="H56" t="s">
+        <v>13</v>
       </c>
       <c r="I56" s="1">
         <v>43115</v>
       </c>
-      <c r="J56" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('various', 'Various', 'workType.various', 'workTypeDescription.various', 1500, '2018-01-15', '2018-01-15'),</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>225</v>
+      <c r="J56" s="1">
+        <v>43115</v>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (55, 'various', 'Various', 'workType.various', 'workTypeDescription.various', 1500, '2018-01-15', '2018-01-15'),</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>225</v>
       </c>
       <c r="C57" t="s">
+        <v>225</v>
+      </c>
+      <c r="D57" t="s">
         <v>226</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>227</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>228</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>50000</v>
       </c>
-      <c r="G57" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" s="1">
-        <v>43115</v>
+      <c r="H57" t="s">
+        <v>13</v>
       </c>
       <c r="I57" s="1">
         <v>43115</v>
       </c>
-      <c r="J57" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('volcano', 'Volcano', 'workType.volcano', 'workTypeDescription.volcano', 50000, '2018-01-15', '2018-01-15'),</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>229</v>
+      <c r="J57" s="1">
+        <v>43115</v>
+      </c>
+      <c r="K57" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (56, 'volcano', 'Volcano', 'workType.volcano', 'workTypeDescription.volcano', 50000, '2018-01-15', '2018-01-15'),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>229</v>
       </c>
       <c r="C58" t="s">
+        <v>229</v>
+      </c>
+      <c r="D58" t="s">
         <v>230</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>231</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>232</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>150</v>
       </c>
-      <c r="G58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="1">
-        <v>43115</v>
-      </c>
-      <c r="I58" t="s">
-        <v>13</v>
-      </c>
-      <c r="J58" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  ('water_sanitation', 'Water_Sanitation', 'workType.water_sanitation', 'workTypeDescription.water_sanitation', 150, '2018-01-15', NULL),</v>
+      <c r="H58" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="1">
+        <v>43115</v>
+      </c>
+      <c r="J58" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (57, 'water_sanitation', 'Water_Sanitation', 'workType.water_sanitation', 'workTypeDescription.water_sanitation', 150, '2018-01-15', NULL),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>233</v>
+      </c>
+      <c r="C59" t="str">
+        <f>B59</f>
+        <v>catchment_gutters</v>
+      </c>
+      <c r="D59" t="s">
+        <v>234</v>
+      </c>
+      <c r="E59" t="str">
+        <f>"workType."&amp;C59</f>
+        <v>workType.catchment_gutters</v>
+      </c>
+      <c r="F59" t="str">
+        <f>"workTypeDescription."&amp;C59</f>
+        <v>workTypeDescription.catchment_gutters</v>
+      </c>
+      <c r="G59">
+        <v>750</v>
+      </c>
+      <c r="H59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" s="1">
+        <v>43349</v>
+      </c>
+      <c r="J59" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (58, 'catchment_gutters', 'Catchment_Gutters', 'workType.catchment_gutters', 'workTypeDescription.catchment_gutters', 750, '2018-09-06', NULL),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>235</v>
+      </c>
+      <c r="C60" t="s">
+        <v>235</v>
+      </c>
+      <c r="D60" t="s">
+        <v>236</v>
+      </c>
+      <c r="E60" t="str">
+        <f>"workType."&amp;C60</f>
+        <v>workType.tephra</v>
+      </c>
+      <c r="F60" t="str">
+        <f>"workTypeDescription."&amp;C60</f>
+        <v>workTypeDescription.tephra</v>
+      </c>
+      <c r="G60">
+        <v>1000</v>
+      </c>
+      <c r="H60" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="1">
+        <v>43349</v>
+      </c>
+      <c r="J60" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  (59, 'tephra', 'Tephra', 'workType.tephra', 'workTypeDescription.tephra', 1000, '2018-09-06', NULL),</v>
       </c>
     </row>
   </sheetData>

--- a/src/definitions/worktypes/work_types.xlsx
+++ b/src/definitions/worktypes/work_types.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\crisiscleanup-web\src\definitions\worktypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB9A997-9DC0-4B7C-85BF-7DE82C69FA6E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726ECF60-6247-45B1-89F1-6A5BD0589C64}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1581,7 +1581,7 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
